--- a/McDermott/Visualization/Data summary.xlsx
+++ b/McDermott/Visualization/Data summary.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60d7846cb67219e2/Documents/GitHub/441-Pintle/McDermott/Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="500" documentId="8_{6060AEE6-955F-404B-8E9D-4C9E4053F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2337204-E2BE-4BF4-B8F3-67FE1C4895BF}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="8_{6060AEE6-955F-404B-8E9D-4C9E4053F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEB2B42-0CB8-4237-B161-2208AD14DCC9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{742D502D-0B99-445D-9B65-6E55DEA31820}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{742D502D-0B99-445D-9B65-6E55DEA31820}"/>
   </bookViews>
   <sheets>
-    <sheet name="HD0" sheetId="1" r:id="rId1"/>
-    <sheet name="HD0_5" sheetId="4" r:id="rId2"/>
-    <sheet name="HD1_0" sheetId="3" r:id="rId3"/>
-    <sheet name="HD2_0" sheetId="2" r:id="rId4"/>
+    <sheet name="HD0Original" sheetId="1" r:id="rId1"/>
+    <sheet name="HD0" sheetId="6" r:id="rId2"/>
+    <sheet name="HD0_5" sheetId="4" r:id="rId3"/>
+    <sheet name="HD1_0" sheetId="3" r:id="rId4"/>
+    <sheet name="HD1_5" sheetId="5" r:id="rId5"/>
+    <sheet name="HD2_0" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>H/D</t>
   </si>
@@ -179,11 +181,48 @@
   <si>
     <t>Expected Mass Collection</t>
   </si>
+  <si>
+    <t>Test1_21-11-19</t>
+  </si>
+  <si>
+    <t>Test2_21-11-19</t>
+  </si>
+  <si>
+    <t>Test3_21-11-19</t>
+  </si>
+  <si>
+    <t>Test4_21-11-19</t>
+  </si>
+  <si>
+    <t>Test5_21-11-19</t>
+  </si>
+  <si>
+    <t>Test6_21-11-19</t>
+  </si>
+  <si>
+    <t>Test2_11-19_HD0</t>
+  </si>
+  <si>
+    <t>Test3_11-19_HD0</t>
+  </si>
+  <si>
+    <t>Test4_11-19_HD0</t>
+  </si>
+  <si>
+    <t>Test5_11-19_HD0</t>
+  </si>
+  <si>
+    <t>Test6_11-19_HD0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -435,15 +474,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,6 +496,70 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0!$A$26</c:f>
+              <c:f>HD0Original!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -587,7 +681,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>HD0!$B$5:$H$5</c:f>
+              <c:f>HD0Original!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -617,7 +711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0!$B$26:$H$26</c:f>
+              <c:f>HD0Original!$B$26:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -656,7 +750,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0!$A$27</c:f>
+              <c:f>HD0Original!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -677,7 +771,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>HD0!$B$5:$H$5</c:f>
+              <c:f>HD0Original!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -707,7 +801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0!$B$27:$H$27</c:f>
+              <c:f>HD0Original!$B$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1086,7 +1180,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>H/D = 0.5</a:t>
+              <a:t>H/D = 0</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1132,7 +1226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0_5!$A$26</c:f>
+              <c:f>HD0!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,61 +1247,55 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>HD0_5!$B$5:$G$5</c:f>
+              <c:f>HD0!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36281287559686798</c:v>
+                  <c:v>1.19186563691194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56687590843011604</c:v>
+                  <c:v>0.90334920643245997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58489636146159596</c:v>
+                  <c:v>0.75463847759359304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66687674953572396</c:v>
+                  <c:v>0.57765356021105596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86530518736112505</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2232079748757401</c:v>
+                  <c:v>0.47558073556929098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0_5!$B$26:$G$26</c:f>
+              <c:f>HD0!$B$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.98739999999999994</c:v>
+                  <c:v>0.7954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82880000000000009</c:v>
+                  <c:v>0.94340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83499999999999996</c:v>
+                  <c:v>0.93439999999999979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61109999999999998</c:v>
+                  <c:v>0.74839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0736000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2429000000000001</c:v>
+                  <c:v>0.79340000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3994-40D1-BF2A-27D67CC9D64D}"/>
+              <c16:uniqueId val="{00000000-C916-48E0-8A7A-4068269E577C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1216,7 +1304,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0_5!$A$27</c:f>
+              <c:f>HD0!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,61 +1325,55 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>HD0_5!$B$5:$G$5</c:f>
+              <c:f>HD0!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36281287559686798</c:v>
+                  <c:v>1.19186563691194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56687590843011604</c:v>
+                  <c:v>0.90334920643245997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58489636146159596</c:v>
+                  <c:v>0.75463847759359304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66687674953572396</c:v>
+                  <c:v>0.57765356021105596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86530518736112505</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2232079748757401</c:v>
+                  <c:v>0.47558073556929098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0_5!$B$27:$G$27</c:f>
+              <c:f>HD0!$B$27:$F$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.88763430571022195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72699999999999998</c:v>
+                  <c:v>0.95984450480693195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76100000000000001</c:v>
+                  <c:v>0.68775134913742697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75700000000000001</c:v>
+                  <c:v>0.33776795863358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2110000000000001</c:v>
+                  <c:v>0.38622179845803001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3994-40D1-BF2A-27D67CC9D64D}"/>
+              <c16:uniqueId val="{00000001-C916-48E0-8A7A-4068269E577C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1646,6 +1728,566 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>H/D = 0.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HD0_5!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Mass Collected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>HD0_5!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36281287559686798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56687590843011604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58489636146159596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66687674953572396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86530518736112505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2232079748757401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HD0_5!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.98739999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82880000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2429000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3994-40D1-BF2A-27D67CC9D64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HD0_5!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Mass Collection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>HD0_5!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36281287559686798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56687590843011604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58489636146159596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66687674953572396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86530518736112505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2232079748757401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HD0_5!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2110000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3994-40D1-BF2A-27D67CC9D64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="892561384"/>
+        <c:axId val="892563024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="892561384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TMR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892563024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892563024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water Mass Collected [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892561384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>H/D = 1.0</a:t>
             </a:r>
           </a:p>
@@ -2183,7 +2825,555 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>H/D = 1.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HD1_5!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Mass Collected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>HD1_5!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36153991929201301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53003552503932605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53389976834311703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.617973764840686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88065267604014996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HD1_5!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.79539999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88239999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74040000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-776D-4B49-BC69-EEA72AFBEF09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HD1_5!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Mass Collection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>HD1_5!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36153991929201301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53003552503932605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53389976834311703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.617973764840686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88065267604014996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HD1_5!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.74450008054403405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.392040730870576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44879054779137301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81173328373251996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68336491298596502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-776D-4B49-BC69-EEA72AFBEF09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="892561384"/>
+        <c:axId val="892563024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="892561384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TMR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892563024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="892563024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water Mass Collected [kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892561384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2891,6 +4081,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4401,6 +5671,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4951,6 +7227,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C6017A-00CE-4075-9CBE-774F184DFEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
@@ -4989,7 +7308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5032,7 +7351,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9A40B4-2DE0-4360-B595-30711D99C4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5391,15 +7753,15 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27">
+      <c r="B1" s="45">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -5629,7 +7991,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>82.5</v>
       </c>
       <c r="B11" s="5"/>
@@ -5641,7 +8003,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>77.5</v>
       </c>
       <c r="B12" s="8"/>
@@ -5650,12 +8012,12 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="35">
+      <c r="H12" s="32">
         <v>5.1200000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>72.5</v>
       </c>
       <c r="B13" s="8"/>
@@ -5664,12 +8026,12 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="35">
+      <c r="H13" s="32">
         <v>0.1062</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>67.5</v>
       </c>
       <c r="B14" s="8"/>
@@ -5678,12 +8040,12 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="35">
+      <c r="H14" s="32">
         <v>0.22239999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>62.5</v>
       </c>
       <c r="B15" s="8"/>
@@ -5694,12 +8056,12 @@
       <c r="G15" s="8">
         <v>0.12790000000000001</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="32">
         <v>0.18340000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>57.5</v>
       </c>
       <c r="B16" s="8"/>
@@ -5712,12 +8074,12 @@
       <c r="G16" s="8">
         <v>0.16220000000000001</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="32">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>52.5</v>
       </c>
       <c r="B17" s="8">
@@ -5732,12 +8094,12 @@
       <c r="G17" s="8">
         <v>0.1794</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="32">
         <v>0.1439</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>47.5</v>
       </c>
       <c r="B18" s="8">
@@ -5755,7 +8117,7 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>42.5</v>
       </c>
       <c r="B19" s="8">
@@ -5779,7 +8141,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>37.5</v>
       </c>
       <c r="B20" s="8">
@@ -5803,7 +8165,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>32.5</v>
       </c>
       <c r="B21" s="8">
@@ -5825,7 +8187,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>27.5</v>
       </c>
       <c r="B22" s="8">
@@ -5845,7 +8207,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>22.5</v>
       </c>
       <c r="B23" s="8"/>
@@ -5863,7 +8225,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>17.5</v>
       </c>
       <c r="B24" s="8"/>
@@ -5881,7 +8243,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>12.5</v>
       </c>
       <c r="B25" s="10"/>
@@ -5896,7 +8258,7 @@
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="33">
         <f>SUM(B11:B25)</f>
         <v>0.40600000000000003</v>
       </c>
@@ -5957,11 +8319,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA15219-5784-4CE5-88DB-9FA10A9BF9C5}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47">
+        <v>0</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44519</v>
+      </c>
+      <c r="C2" s="23">
+        <v>44519</v>
+      </c>
+      <c r="D2" s="23">
+        <v>44519</v>
+      </c>
+      <c r="E2" s="23">
+        <v>44519</v>
+      </c>
+      <c r="F2" s="24">
+        <v>44519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1.19186563691194</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0.90334920643245997</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0.75463847759359304</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.57765356021105596</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.47558073556929098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="51">
+        <v>1.1200472353647699</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.82779655781863903</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.70667404871675299</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.52891302855988398</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.42750010936930399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1.25692619650334</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0.99085853152245695</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0.795580167642848</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.61152433224698399</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.50515893363153097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="40">
+        <v>7.7339000000000002</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9.1859000000000002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.9366000000000003</v>
+      </c>
+      <c r="E8" s="52">
+        <v>3.6381999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4.4386000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" ref="B10:E10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
+        <v>62.5</v>
+      </c>
+      <c r="C10" s="35">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="F10" s="36">
+        <f>INDEX($A11:$A25,MATCH(MAX(F11:F25),F11:F25,0))</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>82.5</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>77.5</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>72.5</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>57.5</v>
+      </c>
+      <c r="B16" s="42">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="C16" s="43">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>47.5</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0.1011</v>
+      </c>
+      <c r="C18" s="43">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>42.5</v>
+      </c>
+      <c r="B19" s="42">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="C19" s="43">
+        <v>0.1234</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="E19" s="43">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>37.5</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="43">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.16039999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="43">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="D21" s="43">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.21379999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="43">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E22" s="43">
+        <v>0.1804</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.18240000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="43">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.1024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="43">
+        <v>2.63E-2</v>
+      </c>
+      <c r="F24" s="32">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="44">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="33">
+        <f>SUM(B11:B25)</f>
+        <v>0.7954</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" ref="C26:F26" si="1">SUM(C11:C25)</f>
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93439999999999979</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.79340000000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="53">
+        <v>0.88763430571022195</v>
+      </c>
+      <c r="C27" s="54">
+        <v>0.95984450480693195</v>
+      </c>
+      <c r="D27" s="54">
+        <v>0.68775134913742697</v>
+      </c>
+      <c r="E27" s="54">
+        <v>0.33776795863358</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0.38622179845803001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEBE220-42F0-4C16-B3E6-D3EF87E8DF85}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,14 +8806,14 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="47">
         <v>0.5</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -6186,7 +9017,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>82.5</v>
       </c>
       <c r="B11" s="5"/>
@@ -6197,7 +9028,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>77.5</v>
       </c>
       <c r="B12" s="8"/>
@@ -6208,7 +9039,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>72.5</v>
       </c>
       <c r="B13" s="8"/>
@@ -6219,7 +9050,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>67.5</v>
       </c>
       <c r="B14" s="8"/>
@@ -6232,7 +9063,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>62.5</v>
       </c>
       <c r="B15" s="8"/>
@@ -6245,7 +9076,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>57.5</v>
       </c>
       <c r="B16" s="8"/>
@@ -6260,7 +9091,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>52.5</v>
       </c>
       <c r="B17" s="8"/>
@@ -6277,7 +9108,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>47.5</v>
       </c>
       <c r="B18" s="8"/>
@@ -6294,7 +9125,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>42.5</v>
       </c>
       <c r="B19" s="8"/>
@@ -6313,7 +9144,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>37.5</v>
       </c>
       <c r="B20" s="8">
@@ -6334,7 +9165,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>32.5</v>
       </c>
       <c r="B21" s="8">
@@ -6355,7 +9186,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>27.5</v>
       </c>
       <c r="B22" s="8">
@@ -6374,7 +9205,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>22.5</v>
       </c>
       <c r="B23" s="8">
@@ -6391,7 +9222,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>17.5</v>
       </c>
       <c r="B24" s="8">
@@ -6408,7 +9239,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>12.5</v>
       </c>
       <c r="B25" s="10">
@@ -6483,7 +9314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD0F1D-C7B3-496C-B255-2830BBB3E62D}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -6502,15 +9333,15 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="48">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -6711,7 +9542,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10">
-        <f t="shared" ref="B10:H10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
+        <f t="shared" ref="B10:F10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
         <v>17.5</v>
       </c>
       <c r="C10" s="10">
@@ -6740,7 +9571,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>82.5</v>
       </c>
       <c r="B11" s="5"/>
@@ -6752,7 +9583,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>77.5</v>
       </c>
       <c r="B12" s="8"/>
@@ -6764,7 +9595,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>72.5</v>
       </c>
       <c r="B13" s="8"/>
@@ -6776,7 +9607,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>67.5</v>
       </c>
       <c r="B14" s="8"/>
@@ -6792,7 +9623,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>62.5</v>
       </c>
       <c r="B15" s="8"/>
@@ -6808,7 +9639,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>57.5</v>
       </c>
       <c r="B16" s="8"/>
@@ -6826,7 +9657,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>52.5</v>
       </c>
       <c r="B17" s="8"/>
@@ -6846,7 +9677,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>47.5</v>
       </c>
       <c r="B18" s="8"/>
@@ -6866,7 +9697,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>42.5</v>
       </c>
       <c r="B19" s="8"/>
@@ -6888,7 +9719,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>37.5</v>
       </c>
       <c r="B20" s="8">
@@ -6910,7 +9741,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>32.5</v>
       </c>
       <c r="B21" s="8">
@@ -6932,7 +9763,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>27.5</v>
       </c>
       <c r="B22" s="8">
@@ -6952,7 +9783,7 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>22.5</v>
       </c>
       <c r="B23" s="8">
@@ -6970,7 +9801,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>17.5</v>
       </c>
       <c r="B24" s="8">
@@ -6988,7 +9819,7 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>12.5</v>
       </c>
       <c r="B25" s="10">
@@ -7012,7 +9843,7 @@
         <v>1.0088000000000001</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:H26" si="1">SUM(C11:C25)</f>
+        <f t="shared" ref="C26:F26" si="1">SUM(C11:C25)</f>
         <v>0.95530000000000004</v>
       </c>
       <c r="D26" s="5">
@@ -7075,12 +9906,542 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A228531B-BFB0-47E3-9BE4-0FE9D2102FD2}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
+        <v>44519</v>
+      </c>
+      <c r="C2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="E2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="F2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="G2" s="17">
+        <v>44519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.36153991929201301</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.53003552503932605</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.53389976834311703</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.617973764840686</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.88065267604014996</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.1447413275190399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.280222425272104</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.47583167148426397</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.49182969520995301</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.52991215826793403</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.815182513569634</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.01474680424313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.42762984179874902</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.56920735182707705</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.57340726391006103</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.71212830935050597</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.937879268658802</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.2618333442871901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="40">
+        <v>9.0277999999999992</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.3895999999999997</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.9625000000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.6731999999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="G8" s="9">
+        <v>11.4068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="29">
+        <f t="shared" ref="B10:G10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
+        <v>32.5</v>
+      </c>
+      <c r="C10" s="30">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>82.5</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>77.5</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>72.5</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
+        <v>0.32340000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <v>0.66080000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>57.5</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8.4400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.1938</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.1804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>47.5</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>0.1084</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>42.5</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.2024</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>37.5</v>
+      </c>
+      <c r="B20" s="40">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.2024</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.11E-2</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="B21" s="40">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.1101</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="B22" s="40">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.1094</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.1041</v>
+      </c>
+      <c r="E22" s="8">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="B23" s="40">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B24" s="40">
+        <v>0.1041</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="B25" s="29">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C25" s="30">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" ref="B26:G26" si="1">SUM(B11:B25)</f>
+        <v>0.79539999999999988</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
+        <v>0.74040000000000006</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="37">
+        <v>0.74450008054403405</v>
+      </c>
+      <c r="C27" s="38">
+        <v>0.392040730870576</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0.44879054779137301</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.81173328373251996</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.68336491298596502</v>
+      </c>
+      <c r="G27" s="39">
+        <v>1.25307198498863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197BADA9-223A-4821-9E6E-39B33698320D}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7094,13 +10455,13 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="47">
         <v>2</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -7279,7 +10640,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="26">
         <v>82.5</v>
       </c>
       <c r="B11" s="5"/>
@@ -7289,7 +10650,7 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>77.5</v>
       </c>
       <c r="B12" s="8"/>
@@ -7299,7 +10660,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>72.5</v>
       </c>
       <c r="B13" s="8"/>
@@ -7311,7 +10672,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>67.5</v>
       </c>
       <c r="B14" s="8"/>
@@ -7323,7 +10684,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>62.5</v>
       </c>
       <c r="B15" s="8"/>
@@ -7337,7 +10698,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>57.5</v>
       </c>
       <c r="B16" s="8"/>
@@ -7353,7 +10714,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>52.5</v>
       </c>
       <c r="B17" s="8"/>
@@ -7369,7 +10730,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>47.5</v>
       </c>
       <c r="B18" s="8"/>
@@ -7387,7 +10748,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>42.5</v>
       </c>
       <c r="B19" s="8">
@@ -7405,7 +10766,7 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>37.5</v>
       </c>
       <c r="B20" s="8">
@@ -7423,7 +10784,7 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="27">
         <v>32.5</v>
       </c>
       <c r="B21" s="8">
@@ -7439,7 +10800,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="27">
         <v>27.5</v>
       </c>
       <c r="B22" s="8">
@@ -7453,7 +10814,7 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="27">
         <v>22.5</v>
       </c>
       <c r="B23" s="8">
@@ -7467,7 +10828,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="27">
         <v>17.5</v>
       </c>
       <c r="B24" s="8">
@@ -7479,7 +10840,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <v>12.5</v>
       </c>
       <c r="B25" s="10"/>

--- a/McDermott/Visualization/Data summary.xlsx
+++ b/McDermott/Visualization/Data summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60d7846cb67219e2/Documents/GitHub/441-Pintle/McDermott/Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="8_{6060AEE6-955F-404B-8E9D-4C9E4053F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEB2B42-0CB8-4237-B161-2208AD14DCC9}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="8_{6060AEE6-955F-404B-8E9D-4C9E4053F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C07E1B7E-831D-4654-83D6-7CD75A3CF4D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{742D502D-0B99-445D-9B65-6E55DEA31820}"/>
+    <workbookView xWindow="-23430" yWindow="-21840" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{742D502D-0B99-445D-9B65-6E55DEA31820}"/>
   </bookViews>
   <sheets>
     <sheet name="HD0Original" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>H/D</t>
   </si>
@@ -214,6 +214,15 @@
   <si>
     <t>Test6_11-19_HD0</t>
   </si>
+  <si>
+    <t>Optical Spray Cone</t>
+  </si>
+  <si>
+    <t>Optical Uncertainty</t>
+  </si>
+  <si>
+    <t>FAKE VALUES</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +230,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -238,12 +247,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -427,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -498,15 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,13 +532,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,21 +593,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1226,7 +1259,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0!$A$26</c:f>
+              <c:f>HD0!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,43 +1285,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.19186563691194</c:v>
+                  <c:v>0.47558073556929098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90334920643245997</c:v>
+                  <c:v>0.57765356021105596</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75463847759359304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57765356021105596</c:v>
+                  <c:v>0.90334920643245997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47558073556929098</c:v>
+                  <c:v>1.19186563691194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0!$B$26:$F$26</c:f>
+              <c:f>HD0!$B$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7954</c:v>
+                  <c:v>0.79340000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94340000000000002</c:v>
+                  <c:v>0.74839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.93439999999999979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74839999999999995</c:v>
+                  <c:v>0.94340000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79340000000000011</c:v>
+                  <c:v>0.7954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0!$A$27</c:f>
+              <c:f>HD0!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1330,43 +1363,43 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.19186563691194</c:v>
+                  <c:v>0.47558073556929098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90334920643245997</c:v>
+                  <c:v>0.57765356021105596</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75463847759359304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57765356021105596</c:v>
+                  <c:v>0.90334920643245997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47558073556929098</c:v>
+                  <c:v>1.19186563691194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0!$B$27:$F$27</c:f>
+              <c:f>HD0!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.88763430571022195</c:v>
+                  <c:v>0.38622179845803001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95984450480693195</c:v>
+                  <c:v>0.33776795863358</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.68775134913742697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33776795863358</c:v>
+                  <c:v>0.95984450480693195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38622179845803001</c:v>
+                  <c:v>0.88763430571022195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,7 +1807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0_5!$A$26</c:f>
+              <c:f>HD0_5!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1822,7 +1855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0_5!$B$26:$G$26</c:f>
+              <c:f>HD0_5!$B$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1858,7 +1891,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD0_5!$A$27</c:f>
+              <c:f>HD0_5!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1906,7 +1939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD0_5!$B$27:$G$27</c:f>
+              <c:f>HD0_5!$B$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2334,7 +2367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD1_0!$A$26</c:f>
+              <c:f>HD1_0!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2385,7 +2418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD1_0!$B$26:$H$26</c:f>
+              <c:f>HD1_0!$B$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2424,7 +2457,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD1_0!$A$27</c:f>
+              <c:f>HD1_0!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2475,7 +2508,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD1_0!$B$27:$H$27</c:f>
+              <c:f>HD1_0!$B$28:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2906,7 +2939,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD1_5!$A$26</c:f>
+              <c:f>HD1_5!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2951,7 +2984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD1_5!$B$26:$F$26</c:f>
+              <c:f>HD1_5!$B$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2984,7 +3017,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD1_5!$A$27</c:f>
+              <c:f>HD1_5!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3029,7 +3062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD1_5!$B$27:$F$27</c:f>
+              <c:f>HD1_5!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3454,7 +3487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD2_0!$A$26</c:f>
+              <c:f>HD2_0!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3499,7 +3532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD2_0!$B$26:$F$26</c:f>
+              <c:f>HD2_0!$B$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3532,7 +3565,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>HD2_0!$A$27</c:f>
+              <c:f>HD2_0!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3577,7 +3610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HD2_0!$B$27:$F$27</c:f>
+              <c:f>HD2_0!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7226,16 +7259,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>369094</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>597694</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7271,13 +7304,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7320,7 +7353,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7357,13 +7390,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7400,13 +7433,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7753,15 +7786,15 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45">
+      <c r="B1" s="55">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -8320,10 +8353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA15219-5784-4CE5-88DB-9FA10A9BF9C5}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8340,442 +8373,472 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="57">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="38">
         <v>44519</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="16">
         <v>44519</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="16">
         <v>44519</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="16">
         <v>44519</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="17">
         <v>44519</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="19">
+        <v>0.47558073556929098</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.57765356021105596</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.75463847759359304</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.90334920643245997</v>
+      </c>
+      <c r="F5" s="20">
         <v>1.19186563691194</v>
       </c>
-      <c r="C5" s="51">
-        <v>0.90334920643245997</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0.75463847759359304</v>
-      </c>
-      <c r="E5" s="51">
-        <v>0.57765356021105596</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0.47558073556929098</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="19">
+        <v>0.42750010936930399</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.52891302855988398</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.70667404871675299</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.82779655781863903</v>
+      </c>
+      <c r="F6" s="20">
         <v>1.1200472353647699</v>
       </c>
-      <c r="C6" s="51">
-        <v>0.82779655781863903</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.70667404871675299</v>
-      </c>
-      <c r="E6" s="51">
-        <v>0.52891302855988398</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0.42750010936930399</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="19">
+        <v>0.50515893363153097</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.61152433224698399</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.795580167642848</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.99085853152245695</v>
+      </c>
+      <c r="F7" s="20">
         <v>1.25692619650334</v>
       </c>
-      <c r="C7" s="51">
-        <v>0.99085853152245695</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.795580167642848</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0.61152433224698399</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.50515893363153097</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="40">
-        <v>7.7339000000000002</v>
-      </c>
-      <c r="C8" s="8">
-        <v>9.1859000000000002</v>
+      <c r="B8" s="37">
+        <v>4.4386000000000001</v>
+      </c>
+      <c r="C8" s="44">
+        <v>3.6381999999999999</v>
       </c>
       <c r="D8" s="8">
         <v>6.9366000000000003</v>
       </c>
-      <c r="E8" s="52">
-        <v>3.6381999999999999</v>
+      <c r="E8" s="8">
+        <v>9.1859000000000002</v>
       </c>
       <c r="F8" s="9">
-        <v>4.4386000000000001</v>
+        <v>7.7339000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="33">
+        <v>41.81</v>
+      </c>
+      <c r="C9" s="5">
+        <v>47.18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>55.36</v>
+      </c>
+      <c r="E9" s="5">
+        <v>59.05</v>
+      </c>
+      <c r="F9" s="6">
+        <v>55.47</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="37">
+        <v>6.7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5.39</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34">
-        <f t="shared" ref="B10:E10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
+      <c r="B11" s="41">
+        <f>INDEX($A12:$A26,MATCH(MAX(B12:B26),B12:B26,0))</f>
+        <v>32.5</v>
+      </c>
+      <c r="C11" s="42">
+        <f>INDEX($A12:$A26,MATCH(MAX(C12:C26),C12:C26,0))</f>
+        <v>32.5</v>
+      </c>
+      <c r="D11" s="42">
+        <f>INDEX($A12:$A26,MATCH(MAX(D12:D26),D12:D26,0))</f>
+        <v>47.5</v>
+      </c>
+      <c r="E11" s="42">
+        <f>INDEX($A12:$A26,MATCH(MAX(E12:E26),E12:E26,0))</f>
+        <v>52.5</v>
+      </c>
+      <c r="F11" s="43">
+        <f>INDEX($A12:$A26,MATCH(MAX(F12:F26),F12:F26,0))</f>
         <v>62.5</v>
       </c>
-      <c r="C10" s="35">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="D10" s="35">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-      <c r="E10" s="35">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="F10" s="36">
-        <f>INDEX($A11:$A25,MATCH(MAX(F11:F25),F11:F25,0))</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>82.5</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>77.5</v>
-      </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>72.5</v>
-      </c>
-      <c r="B13" s="40"/>
+      <c r="A13" s="37">
+        <v>77.5</v>
+      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>67.5</v>
-      </c>
-      <c r="B14" s="42">
-        <v>0.18740000000000001</v>
-      </c>
+      <c r="A14" s="37">
+        <v>72.5</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="B15" s="42">
-        <v>0.26379999999999998</v>
-      </c>
+      <c r="A15" s="37">
+        <v>67.5</v>
+      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="32">
+        <v>0.18740000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>57.5</v>
-      </c>
-      <c r="B16" s="42">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="C16" s="43">
-        <v>0.15240000000000001</v>
-      </c>
+      <c r="A16" s="37">
+        <v>62.5</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="32">
+        <v>0.26379999999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="37">
+        <v>57.5</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="40">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F17" s="32">
+        <v>3.7400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
         <v>52.5</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B18" s="37"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="40">
+        <v>0.19739999999999999</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="F18" s="32">
         <v>0.12640000000000001</v>
       </c>
-      <c r="C17" s="43">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0.19739999999999999</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
         <v>47.5</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B19" s="37"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="40">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="E19" s="40">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="F19" s="32">
         <v>0.1011</v>
       </c>
-      <c r="C18" s="43">
-        <v>0.22140000000000001</v>
-      </c>
-      <c r="D18" s="43">
-        <v>0.26079999999999998</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>42.5</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B20" s="37"/>
+      <c r="C20" s="40">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0.1234</v>
+      </c>
+      <c r="F20" s="32">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="C19" s="43">
-        <v>0.1234</v>
-      </c>
-      <c r="D19" s="43">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="E19" s="43">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>37.5</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="43">
+      <c r="B21" s="39">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="E21" s="40">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="D20" s="43">
-        <v>0.13439999999999999</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0.14380000000000001</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0.16039999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>32.5</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43">
+      <c r="B22" s="39">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="D22" s="40">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="E22" s="40">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="D21" s="43">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="E21" s="43">
-        <v>0.22239999999999999</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0.21379999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>27.5</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="43">
+      <c r="B23" s="39">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0.1804</v>
+      </c>
+      <c r="D23" s="40">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="E22" s="43">
-        <v>0.1804</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0.18240000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>22.5</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="43">
+      <c r="B24" s="39">
+        <v>0.1024</v>
+      </c>
+      <c r="C24" s="40">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="F23" s="32">
-        <v>0.1024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>17.5</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="43">
+      <c r="B25" s="39">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="C25" s="40">
         <v>2.63E-2</v>
       </c>
-      <c r="F24" s="32">
-        <v>8.2100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
         <v>12.5</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="44">
+      <c r="B26" s="39">
         <v>5.2299999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="33">
-        <f>SUM(B11:B25)</f>
+      <c r="B27" s="33">
+        <f>SUM(B12:B26)</f>
+        <v>0.79340000000000011</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUM(C12:C26)</f>
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="D27" s="5">
+        <f>SUM(D12:D26)</f>
+        <v>0.93439999999999979</v>
+      </c>
+      <c r="E27" s="5">
+        <f>SUM(E12:E26)</f>
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f>SUM(F12:F26)</f>
         <v>0.7954</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="1">SUM(C11:C25)</f>
-        <v>0.94340000000000002</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.93439999999999979</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.79340000000000011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B28" s="45">
+        <v>0.38622179845803001</v>
+      </c>
+      <c r="C28" s="46">
+        <v>0.33776795863358</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.68775134913742697</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.95984450480693195</v>
+      </c>
+      <c r="F28" s="47">
         <v>0.88763430571022195</v>
-      </c>
-      <c r="C27" s="54">
-        <v>0.95984450480693195</v>
-      </c>
-      <c r="D27" s="54">
-        <v>0.68775134913742697</v>
-      </c>
-      <c r="E27" s="54">
-        <v>0.33776795863358</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0.38622179845803001</v>
       </c>
     </row>
   </sheetData>
@@ -8789,10 +8852,1207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEBE220-42F0-4C16-B3E6-D3EF87E8DF85}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44516</v>
+      </c>
+      <c r="C2" s="23">
+        <v>44516</v>
+      </c>
+      <c r="D2" s="23">
+        <v>44516</v>
+      </c>
+      <c r="E2" s="23">
+        <v>44516</v>
+      </c>
+      <c r="F2" s="23">
+        <v>44516</v>
+      </c>
+      <c r="G2" s="17">
+        <v>44516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.36281287559686798</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56687590843011604</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.58489636146159596</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.66687674953572396</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.86530518736112505</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1.2232079748757401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.27806282848610497</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.49560144050312699</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.50461031165108905</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.58432603681338802</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.77954409169279404</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1.1254695285863101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.43408195973804098</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.64237802872476402</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.65104663346705105</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.75799005036453604</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.963520067911524</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1.3113875737488201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21">
+        <v>6.7586000000000004</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8.1468000000000007</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="E8" s="10">
+        <v>7.9763000000000002</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.9045000000000005</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10.9945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="52">
+        <v>42.29</v>
+      </c>
+      <c r="C9" s="52">
+        <v>33.75</v>
+      </c>
+      <c r="D9" s="52">
+        <v>42.91</v>
+      </c>
+      <c r="E9" s="52">
+        <v>45.65</v>
+      </c>
+      <c r="F9" s="52">
+        <v>55.55</v>
+      </c>
+      <c r="G9" s="53">
+        <v>61.25</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="44">
+        <v>12.05</v>
+      </c>
+      <c r="C10" s="44">
+        <v>6.32</v>
+      </c>
+      <c r="D10" s="44">
+        <v>6.61</v>
+      </c>
+      <c r="E10" s="44">
+        <v>5.83</v>
+      </c>
+      <c r="F10" s="44">
+        <v>7.34</v>
+      </c>
+      <c r="G10" s="54">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f>INDEX($A12:$A26,MATCH(MAX(B12:B26),B12:B26,0))</f>
+        <v>17.5</v>
+      </c>
+      <c r="C11" s="10">
+        <f>INDEX($A12:$A26,MATCH(MAX(C12:C26),C12:C26,0))</f>
+        <v>27.5</v>
+      </c>
+      <c r="D11" s="10">
+        <f>INDEX($A12:$A26,MATCH(MAX(D12:D26),D12:D26,0))</f>
+        <v>32.5</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:G11" si="0">INDEX($A12:$A26,MATCH(MAX(E12:E26),E12:E26,0))</f>
+        <v>32.5</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>82.5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>77.5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>72.5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
+        <v>0.1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <v>0.28810000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>57.5</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.32669999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>47.5</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.25230000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>42.5</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.15720000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>37.5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.1104</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.1409</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.16619999999999999</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>7.85E-2</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUM(B12:B26)</f>
+        <v>0.98739999999999994</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:G27" si="1">SUM(C12:C26)</f>
+        <v>0.82880000000000009</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0736000000000001</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2429000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1.2110000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD0F1D-C7B3-496C-B255-2830BBB3E62D}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44515</v>
+      </c>
+      <c r="C2" s="23">
+        <v>44515</v>
+      </c>
+      <c r="D2" s="23">
+        <v>44515</v>
+      </c>
+      <c r="E2" s="23">
+        <v>44515</v>
+      </c>
+      <c r="F2" s="23">
+        <v>44515</v>
+      </c>
+      <c r="G2" s="16">
+        <v>44515</v>
+      </c>
+      <c r="H2" s="17">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.35261238002393902</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.38199807941257502</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.51627514425642196</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.64552921780803596</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.84980684578730703</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.12164114784298</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.19859267333844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.28816113180554698</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.34620581243800103</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45430918544371501</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.56038432976426999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.774044164604894</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.0456219659947901</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1.0718284110290299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.42738615011007203</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41964479555938899</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.58715127701740899</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.72042284604289997</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.91581831325646401</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.1784856619712201</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.28023725266157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7.5547000000000004</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3.0101</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9.6266999999999996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6.3400999999999996</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.6652000000000005</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.73</v>
+      </c>
+      <c r="H8" s="11">
+        <v>7.7035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="C9" s="5">
+        <v>32.36</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40.98</v>
+      </c>
+      <c r="E9" s="5">
+        <v>47.63</v>
+      </c>
+      <c r="F9" s="5">
+        <v>54.76</v>
+      </c>
+      <c r="G9" s="5">
+        <v>59.97</v>
+      </c>
+      <c r="H9" s="6">
+        <v>53.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5.65</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.03</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="G10" s="51">
+        <v>6.56</v>
+      </c>
+      <c r="H10" s="9">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" ref="B11:F11" si="0">INDEX($A12:$A26,MATCH(MAX(B12:B26),B12:B26,0))</f>
+        <v>17.5</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="G11" s="8">
+        <f>INDEX($A12:$A26,MATCH(MAX(G12:G26),G12:G26,0))</f>
+        <v>62.5</v>
+      </c>
+      <c r="H11" s="11">
+        <f>INDEX($A12:$A26,MATCH(MAX(H12:H26),H12:H26,0))</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>82.5</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>77.5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>72.5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>67.5</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>62.5</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2">
+        <v>0.2727</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>57.5</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.1779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>47.5</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.1666</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.1482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>42.5</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>0.14829999999999999</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.1193</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>37.5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>32.5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.1041</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.2291</v>
+      </c>
+      <c r="F22" s="8">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.2147</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.1492</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>22.5</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.1797</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.1517</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.2576</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.2009</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.2374</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUM(B12:B26)</f>
+        <v>1.0088000000000001</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:F27" si="1">SUM(C12:C26)</f>
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1834000000000002</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2613999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <f>SUM(G12:G26)</f>
+        <v>0.90829999999999989</v>
+      </c>
+      <c r="H27" s="6">
+        <f>SUM(H12:H26)</f>
+        <v>1.0331000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.622</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A228531B-BFB0-47E3-9BE4-0FE9D2102FD2}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8806,36 +10066,36 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
-        <v>44516</v>
-      </c>
-      <c r="C2" s="23">
-        <v>44516</v>
-      </c>
-      <c r="D2" s="23">
-        <v>44516</v>
-      </c>
-      <c r="E2" s="23">
-        <v>44516</v>
-      </c>
-      <c r="F2" s="23">
-        <v>44516</v>
+      <c r="B2" s="38">
+        <v>44519</v>
+      </c>
+      <c r="C2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="E2" s="16">
+        <v>44519</v>
+      </c>
+      <c r="F2" s="16">
+        <v>44519</v>
       </c>
       <c r="G2" s="17">
-        <v>44516</v>
+        <v>44519</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8866,22 +10126,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8889,22 +10149,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="19">
-        <v>0.36281287559686798</v>
+        <v>0.36153991929201301</v>
       </c>
       <c r="C5" s="4">
-        <v>0.56687590843011604</v>
+        <v>0.53003552503932605</v>
       </c>
       <c r="D5" s="4">
-        <v>0.58489636146159596</v>
+        <v>0.53389976834311703</v>
       </c>
       <c r="E5" s="4">
-        <v>0.66687674953572396</v>
+        <v>0.617973764840686</v>
       </c>
       <c r="F5" s="4">
-        <v>0.86530518736112505</v>
+        <v>0.88065267604014996</v>
       </c>
       <c r="G5" s="20">
-        <v>1.2232079748757401</v>
+        <v>1.1447413275190399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8912,22 +10172,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="19">
-        <v>0.27806282848610497</v>
+        <v>0.280222425272104</v>
       </c>
       <c r="C6" s="4">
-        <v>0.49560144050312699</v>
+        <v>0.47583167148426397</v>
       </c>
       <c r="D6" s="4">
-        <v>0.50461031165108905</v>
+        <v>0.49182969520995301</v>
       </c>
       <c r="E6" s="4">
-        <v>0.58432603681338802</v>
+        <v>0.52991215826793403</v>
       </c>
       <c r="F6" s="4">
-        <v>0.77954409169279404</v>
+        <v>0.815182513569634</v>
       </c>
       <c r="G6" s="20">
-        <v>1.1254695285863101</v>
+        <v>1.01474680424313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8935,114 +10195,138 @@
         <v>7</v>
       </c>
       <c r="B7" s="19">
-        <v>0.43408195973804098</v>
+        <v>0.42762984179874902</v>
       </c>
       <c r="C7" s="4">
-        <v>0.64237802872476402</v>
+        <v>0.56920735182707705</v>
       </c>
       <c r="D7" s="4">
-        <v>0.65104663346705105</v>
+        <v>0.57340726391006103</v>
       </c>
       <c r="E7" s="4">
-        <v>0.75799005036453604</v>
+        <v>0.71212830935050597</v>
       </c>
       <c r="F7" s="4">
-        <v>0.963520067911524</v>
+        <v>0.937879268658802</v>
       </c>
       <c r="G7" s="20">
-        <v>1.3113875737488201</v>
+        <v>1.2618333442871901</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21">
-        <v>6.7586000000000004</v>
-      </c>
-      <c r="C8" s="10">
-        <v>8.1468000000000007</v>
-      </c>
-      <c r="D8" s="10">
-        <v>8.4190000000000005</v>
-      </c>
-      <c r="E8" s="10">
-        <v>7.9763000000000002</v>
-      </c>
-      <c r="F8" s="10">
-        <v>9.9045000000000005</v>
-      </c>
-      <c r="G8" s="11">
-        <v>10.9945</v>
+      <c r="B8" s="37">
+        <v>9.0277999999999992</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4.3895999999999997</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.9625000000000004</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.6731999999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="G8" s="9">
+        <v>11.4068</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B9" s="52">
+        <v>36.06</v>
+      </c>
+      <c r="C9" s="52">
+        <v>47.08</v>
+      </c>
+      <c r="D9" s="52">
+        <v>42.94</v>
+      </c>
+      <c r="E9" s="52">
+        <v>47.56</v>
+      </c>
+      <c r="F9" s="52">
+        <v>56.06</v>
+      </c>
+      <c r="G9" s="53">
+        <v>60.99</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="44">
+        <v>8.86</v>
+      </c>
+      <c r="C10" s="44">
+        <v>6.28</v>
+      </c>
+      <c r="D10" s="44">
+        <v>5.91</v>
+      </c>
+      <c r="E10" s="44">
+        <v>6.9</v>
+      </c>
+      <c r="F10" s="44">
+        <v>7.99</v>
+      </c>
+      <c r="G10" s="54">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <f>INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
-        <v>17.5</v>
-      </c>
-      <c r="C10" s="10">
-        <f>INDEX($A11:$A25,MATCH(MAX(C11:C25),C11:C25,0))</f>
-        <v>27.5</v>
-      </c>
-      <c r="D10" s="10">
-        <f>INDEX($A11:$A25,MATCH(MAX(D11:D25),D11:D25,0))</f>
+      <c r="B11" s="29">
+        <f t="shared" ref="B11:G11" si="0">INDEX($A12:$A26,MATCH(MAX(B12:B26),B12:B26,0))</f>
         <v>32.5</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" ref="E10:G10" si="0">INDEX($A11:$A25,MATCH(MAX(E11:E25),E11:E25,0))</f>
-        <v>32.5</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="C11" s="30">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="G10" s="11">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+        <v>37.5</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>82.5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>77.5</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
-        <v>72.5</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>77.5</v>
+      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -9051,1381 +10335,273 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
-        <v>67.5</v>
-      </c>
-      <c r="B14" s="8"/>
+        <v>72.5</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9">
-        <v>0.1241</v>
-      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>67.5</v>
+      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9">
-        <v>0.28810000000000002</v>
+        <v>0.32340000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
-        <v>57.5</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>62.5</v>
+      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>6.8699999999999997E-2</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="9">
-        <v>9.4500000000000001E-2</v>
+        <v>0.66080000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>52.5</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>57.5</v>
+      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>3.5799999999999998E-2</v>
-      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="8">
-        <v>0.155</v>
+        <v>0.24740000000000001</v>
       </c>
       <c r="G17" s="9">
-        <v>0.32669999999999999</v>
+        <v>8.4400000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
-        <v>47.5</v>
-      </c>
-      <c r="B18" s="8"/>
+        <v>52.5</v>
+      </c>
+      <c r="B18" s="37"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8">
-        <v>5.9499999999999997E-2</v>
+        <v>0.11840000000000001</v>
       </c>
       <c r="F18" s="8">
-        <v>0.19919999999999999</v>
+        <v>0.1938</v>
       </c>
       <c r="G18" s="9">
-        <v>0.25230000000000002</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
-        <v>42.5</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>47.5</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>0.1084</v>
+      </c>
       <c r="E19" s="8">
-        <v>9.0999999999999998E-2</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="F19" s="8">
-        <v>0.22570000000000001</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="G19" s="9">
-        <v>0.15720000000000001</v>
+        <v>9.9099999999999994E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.1104</v>
-      </c>
+        <v>42.5</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8">
-        <v>0.15340000000000001</v>
+        <v>0.18379999999999999</v>
       </c>
       <c r="E20" s="8">
-        <v>0.12429999999999999</v>
+        <v>0.2024</v>
       </c>
       <c r="F20" s="8">
-        <v>0.25609999999999999</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5.7299999999999997E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
-        <v>32.5</v>
-      </c>
-      <c r="B21" s="8">
-        <v>8.9099999999999999E-2</v>
+        <v>37.5</v>
+      </c>
+      <c r="B21" s="37">
+        <v>0.12740000000000001</v>
       </c>
       <c r="C21" s="8">
-        <v>0.14549999999999999</v>
+        <v>0.19539999999999999</v>
       </c>
       <c r="D21" s="8">
-        <v>0.18390000000000001</v>
+        <v>0.2024</v>
       </c>
       <c r="E21" s="8">
-        <v>0.151</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="F21" s="8">
-        <v>0.16889999999999999</v>
+        <v>5.11E-2</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
-        <v>27.5</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.19850000000000001</v>
+        <v>32.5</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0.17280000000000001</v>
       </c>
       <c r="C22" s="8">
-        <v>0.18740000000000001</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="D22" s="8">
-        <v>0.15759999999999999</v>
+        <v>0.15740000000000001</v>
       </c>
       <c r="E22" s="8">
-        <v>0.14949999999999999</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>0.1101</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4.3299999999999998E-2</v>
+      </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
-        <v>22.5</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.17299999999999999</v>
+        <v>27.5</v>
+      </c>
+      <c r="B23" s="37">
+        <v>0.16739999999999999</v>
       </c>
       <c r="C23" s="8">
-        <v>0.1409</v>
+        <v>0.1094</v>
       </c>
       <c r="D23" s="8">
-        <v>0.108</v>
-      </c>
-      <c r="E23" s="8"/>
+        <v>0.1041</v>
+      </c>
+      <c r="E23" s="8">
+        <v>8.8300000000000003E-2</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
-        <v>17.5</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.30159999999999998</v>
+        <v>22.5</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0.12740000000000001</v>
       </c>
       <c r="C24" s="8">
-        <v>0.16619999999999999</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="D24" s="8">
-        <v>0.15359999999999999</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B25" s="37">
+        <v>0.1041</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
         <v>12.5</v>
       </c>
-      <c r="B25" s="10">
-        <v>0.18679999999999999</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10">
-        <v>7.85E-2</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="29">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C26" s="30">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="5">
-        <f>SUM(B11:B25)</f>
-        <v>0.98739999999999994</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:G26" si="1">SUM(C11:C25)</f>
-        <v>0.82880000000000009</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.61109999999999998</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0736000000000001</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2429000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1.2110000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD0F1D-C7B3-496C-B255-2830BBB3E62D}">
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48">
-        <v>1</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>44515</v>
-      </c>
-      <c r="C2" s="23">
-        <v>44515</v>
-      </c>
-      <c r="D2" s="23">
-        <v>44515</v>
-      </c>
-      <c r="E2" s="23">
-        <v>44515</v>
-      </c>
-      <c r="F2" s="23">
-        <v>44515</v>
-      </c>
-      <c r="G2" s="16">
-        <v>44515</v>
-      </c>
-      <c r="H2" s="17">
-        <v>44515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.35261238002393902</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.38199807941257502</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.51627514425642196</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.64552921780803596</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.84980684578730703</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.12164114784298</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.19859267333844</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.28816113180554698</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.34620581243800103</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.45430918544371501</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.56038432976426999</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.774044164604894</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.0456219659947901</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1.0718284110290299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.42738615011007203</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.41964479555938899</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.58715127701740899</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.72042284604289997</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.91581831325646401</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.1784856619712201</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1.28023725266157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="21">
-        <v>7.5547000000000004</v>
-      </c>
-      <c r="C8" s="10">
-        <v>3.0101</v>
-      </c>
-      <c r="D8" s="10">
-        <v>9.6266999999999996</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6.3400999999999996</v>
-      </c>
-      <c r="F8" s="10">
-        <v>9.6652000000000005</v>
-      </c>
-      <c r="G8" s="8">
-        <v>5.73</v>
-      </c>
-      <c r="H8" s="11">
-        <v>7.7035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" ref="B10:F10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
-        <v>17.5</v>
-      </c>
-      <c r="C10" s="10">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-      <c r="G10" s="2">
-        <f>INDEX($A11:$A25,MATCH(MAX(G11:G25),G11:G25,0))</f>
-        <v>62.5</v>
-      </c>
-      <c r="H10" s="11">
-        <f>INDEX($A11:$A25,MATCH(MAX(H11:H25),H11:H25,0))</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>82.5</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>77.5</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>72.5</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>67.5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2">
-        <v>0.2727</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>57.5</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="H16" s="9">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>52.5</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.19289999999999999</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.1779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>47.5</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8">
-        <v>0.15229999999999999</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.30049999999999999</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.1666</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.1482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>42.5</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8">
-        <v>0.14829999999999999</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.26450000000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.1193</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="C20" s="8">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.19009999999999999</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>32.5</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0.1041</v>
-      </c>
-      <c r="C21" s="8">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.29380000000000001</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.2291</v>
-      </c>
-      <c r="F21" s="8">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>27.5</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.2147</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.28129999999999999</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.1492</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>22.5</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.18729999999999999</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.1797</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.1517</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>17.5</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.2576</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D24" s="8">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0.2009</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.2374</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5">
-        <f>SUM(B11:B25)</f>
-        <v>1.0088000000000001</v>
-      </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="1">SUM(C11:C25)</f>
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="D26" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1834000000000002</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1179999999999999</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="1"/>
-        <v>1.2613999999999999</v>
-      </c>
-      <c r="G26" s="5">
-        <f>SUM(G11:G25)</f>
-        <v>0.90829999999999989</v>
-      </c>
-      <c r="H26" s="6">
-        <f>SUM(H11:H25)</f>
-        <v>1.0331000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0.622</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A228531B-BFB0-47E3-9BE4-0FE9D2102FD2}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
-        <v>44519</v>
-      </c>
-      <c r="C2" s="16">
-        <v>44519</v>
-      </c>
-      <c r="D2" s="16">
-        <v>44519</v>
-      </c>
-      <c r="E2" s="16">
-        <v>44519</v>
-      </c>
-      <c r="F2" s="16">
-        <v>44519</v>
-      </c>
-      <c r="G2" s="17">
-        <v>44519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.36153991929201301</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.53003552503932605</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.53389976834311703</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.617973764840686</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.88065267604014996</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1.1447413275190399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.280222425272104</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.47583167148426397</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.49182969520995301</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.52991215826793403</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.815182513569634</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1.01474680424313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.42762984179874902</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.56920735182707705</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.57340726391006103</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.71212830935050597</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.937879268658802</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1.2618333442871901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="40">
-        <v>9.0277999999999992</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4.3895999999999997</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4.9625000000000004</v>
-      </c>
-      <c r="E8" s="8">
-        <v>8.6731999999999996</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6.7089999999999996</v>
-      </c>
-      <c r="G8" s="9">
-        <v>11.4068</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="29">
-        <f t="shared" ref="B10:G10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
-        <v>32.5</v>
-      </c>
-      <c r="C10" s="30">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="D10" s="30">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" si="0"/>
-        <v>47.5</v>
-      </c>
-      <c r="F10" s="30">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>82.5</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>77.5</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>72.5</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>67.5</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9">
-        <v>0.32340000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>62.5</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9">
-        <v>0.66080000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>57.5</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>0.24740000000000001</v>
-      </c>
-      <c r="G16" s="9">
-        <v>8.4400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>52.5</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.1938</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.1804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>47.5</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>0.1084</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="G18" s="9">
-        <v>9.9099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>42.5</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8">
-        <v>0.18379999999999999</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.2024</v>
-      </c>
-      <c r="F19" s="8">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="G19" s="9">
-        <v>5.7299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>37.5</v>
-      </c>
-      <c r="B20" s="40">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.19539999999999999</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.2024</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.15040000000000001</v>
-      </c>
-      <c r="F20" s="8">
-        <v>5.11E-2</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>32.5</v>
-      </c>
-      <c r="B21" s="40">
-        <v>0.17280000000000001</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.15740000000000001</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.1101</v>
-      </c>
-      <c r="F21" s="8">
-        <v>4.3299999999999998E-2</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>27.5</v>
-      </c>
-      <c r="B22" s="40">
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.1094</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.1041</v>
-      </c>
-      <c r="E22" s="8">
-        <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>22.5</v>
-      </c>
-      <c r="B23" s="40">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C23" s="8">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>7.7299999999999994E-2</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>17.5</v>
-      </c>
-      <c r="B24" s="40">
-        <v>0.1041</v>
-      </c>
-      <c r="C24" s="8">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>12.5</v>
-      </c>
-      <c r="B25" s="29">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="C25" s="30">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="33">
-        <f t="shared" ref="B26:G26" si="1">SUM(B11:B25)</f>
+      <c r="B27" s="33">
+        <f t="shared" ref="B27:G27" si="1">SUM(B12:B26)</f>
         <v>0.79539999999999988</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <f t="shared" si="1"/>
         <v>0.68840000000000001</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>0.83340000000000003</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>0.88239999999999996</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>0.74040000000000006</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>1.4054</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B28" s="34">
         <v>0.74450008054403405</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C28" s="35">
         <v>0.392040730870576</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D28" s="35">
         <v>0.44879054779137301</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E28" s="35">
         <v>0.81173328373251996</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F28" s="35">
         <v>0.68336491298596502</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G28" s="36">
         <v>1.25307198498863</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10438,10 +10614,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197BADA9-223A-4821-9E6E-39B33698320D}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10455,13 +10631,13 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="60">
         <v>2</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -10606,222 +10782,238 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="B9" s="52">
+        <v>32.86</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42.34</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44.55</v>
+      </c>
+      <c r="E9" s="52">
+        <v>54.32</v>
+      </c>
+      <c r="F9" s="53">
+        <v>56.68</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="44">
+        <v>6.16</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.88</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="E10" s="44">
+        <v>5.36</v>
+      </c>
+      <c r="F10" s="54">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
-        <f t="shared" ref="B10:E10" si="0">INDEX($A11:$A25,MATCH(MAX(B11:B25),B11:B25,0))</f>
+      <c r="B11" s="10">
+        <f t="shared" ref="B11:E11" si="0">INDEX($A12:$A26,MATCH(MAX(B12:B26),B12:B26,0))</f>
         <v>22.5</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="F10" s="11">
-        <f>INDEX($A11:$A25,MATCH(MAX(F11:F25),F11:F25,0))</f>
+      <c r="F11" s="11">
+        <f>INDEX($A12:$A26,MATCH(MAX(F12:F26),F12:F26,0))</f>
         <v>67.5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>82.5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>77.5</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="9">
-        <v>0.107</v>
-      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
-        <v>67.5</v>
+        <v>72.5</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9">
-        <v>0.80269999999999997</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
-        <v>62.5</v>
+        <v>67.5</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8">
-        <v>5.62E-2</v>
-      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="9">
-        <v>8.9899999999999994E-2</v>
+        <v>0.80269999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
-        <v>57.5</v>
+        <v>62.5</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>4.3999999999999997E-2</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="8">
-        <v>4.5999999999999999E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F16" s="9">
-        <v>3.04E-2</v>
+        <v>8.9899999999999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8">
-        <v>3.3799999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>6.08E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F17" s="9">
-        <v>0.1048</v>
+        <v>3.04E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="8">
-        <v>3.1300000000000001E-2</v>
-      </c>
+      <c r="C18" s="8"/>
       <c r="D18" s="8">
-        <v>3.5099999999999999E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="E18" s="8">
-        <v>0.10340000000000001</v>
+        <v>6.08E-2</v>
       </c>
       <c r="F18" s="9">
-        <v>0.14219999999999999</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
-        <v>42.5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3.61E-2</v>
-      </c>
+        <v>47.5</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8">
-        <v>3.2199999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>4.8000000000000001E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="E19" s="8">
-        <v>0.14660000000000001</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.14219999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>37.5</v>
+        <v>42.5</v>
       </c>
       <c r="B20" s="8">
-        <v>5.3400000000000003E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>5.2600000000000001E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="D20" s="8">
-        <v>0.1076</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>0.14710000000000001</v>
+        <v>0.14660000000000001</v>
       </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="B21" s="8">
-        <v>8.8700000000000001E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="C21" s="8">
-        <v>9.2299999999999993E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>0.1076</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.14710000000000001</v>
+      </c>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
-        <v>27.5</v>
+        <v>32.5</v>
       </c>
       <c r="B22" s="8">
-        <v>0.12620000000000001</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="C22" s="8">
-        <v>0.1449</v>
-      </c>
-      <c r="D22" s="8"/>
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.8200000000000002E-2</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="B23" s="8">
-        <v>0.16650000000000001</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="C23" s="8">
-        <v>0.1489</v>
+        <v>0.1449</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -10829,68 +11021,82 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="B24" s="8">
-        <v>0.156</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.1489</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
         <v>12.5</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="5">
-        <f>SUM(B11:B25)</f>
+      <c r="B27" s="5">
+        <f>SUM(B12:B26)</f>
         <v>0.62690000000000001</v>
       </c>
-      <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="1">SUM(C11:C25)</f>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:F27" si="1">SUM(C12:C26)</f>
         <v>0.50219999999999998</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>0.32669999999999999</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>0.56010000000000004</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>1.2770000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B28" s="10">
         <v>0.623</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C28" s="10">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>0.73799999999999999</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>0.86899999999999999</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>1.0620000000000001</v>
       </c>
     </row>
